--- a/03.crawler/30.TecDoc/file/5.vehicle/crawler_2-vehicle.xlsx
+++ b/03.crawler/30.TecDoc/file/5.vehicle/crawler_2-vehicle.xlsx
@@ -27,11 +27,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="68">
   <si>
     <t>Part Code</t>
   </si>
   <si>
+    <t>Make No</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Make Code</t>
+  </si>
+  <si>
+    <t>JOIN_PCMC</t>
+  </si>
+  <si>
     <t>Link No</t>
   </si>
   <si>
@@ -41,12 +53,6 @@
     <t>JOIN_PCMCLN</t>
   </si>
   <si>
-    <t>Vehicle No</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
     <t>Model</t>
   </si>
   <si>
@@ -68,13 +74,13 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Construction Year to</t>
-  </si>
-  <si>
-    <t>Construction Year from</t>
-  </si>
-  <si>
-    <t>Fitting Position</t>
+    <t>Check_Url</t>
+  </si>
+  <si>
+    <t>MERCEDES-BENZ</t>
+  </si>
+  <si>
+    <t>2680287;74</t>
   </si>
   <si>
     <t>{"array": [{"articleLinkId": 2680303, "linkingTargetId": 678}, {"articleLinkId": 2680315, "linkingTargetId": 680}, {"articleLinkId": 2680331, "linkingTargetId": 682}, {"articleLinkId": 2680347, "linkingTargetId": 683}, {"articleLinkId": 2680362, "linkingTargetId": 684}, {"articleLinkId": 2680392, "linkingTargetId": 685}, {"articleLinkId": 273515772, "linkingTargetId": 27632}, {"articleLinkId": 2680408, "linkingTargetId": 692}, {"articleLinkId": 145066053, "linkingTargetId": 691}, {"articleLinkId": 2680424, "linkingTargetId": 693}, {"articleLinkId": 2680439, "linkingTargetId": 694}, {"articleLinkId": 2680440, "linkingTargetId": 695}, {"articleLinkId": 2680456, "linkingTargetId": 696}, {"articleLinkId": 948664631, "linkingTargetId": 141985}, {"articleLinkId": 2680472, "linkingTargetId": 698}, {"articleLinkId": 2680488, "linkingTargetId": 699}, {"articleLinkId": 2680504, "linkingTargetId": 700}, {"articleLinkId": 2680518, "linkingTargetId": 701}, {"articleLinkId": 2680532, "linkingTargetId": 702}, {"articleLinkId": 2680613, "linkingTargetId": 716}, {"articleLinkId": 2680546, "linkingTargetId": 703}, {"articleLinkId": 2680560, "linkingTargetId": 705}, {"articleLinkId": 2680574, "linkingTargetId": 706}, {"articleLinkId": 2680588, "linkingTargetId": 707}, {"articleLinkId": 2680600, "linkingTargetId": 708}]}</t>
@@ -83,9 +89,6 @@
     <t>2680287;74;1</t>
   </si>
   <si>
-    <t>MERCEDES-BENZ</t>
-  </si>
-  <si>
     <t>S-CLASS (W126)</t>
   </si>
   <si>
@@ -98,7 +101,7 @@
     <t>Saloon</t>
   </si>
   <si>
-    <t/>
+    <t>https://web.tecalliance.net/tecdoc/qa/parts/30/3 397 001 014/detail?groups=298</t>
   </si>
   <si>
     <t>280 S (126.021)</t>
@@ -113,21 +116,21 @@
     <t>197910-198507</t>
   </si>
   <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>198008-198408</t>
+  </si>
+  <si>
     <t>300 SE, SEL (126.024, 126.025)</t>
   </si>
   <si>
+    <t>198509-198912</t>
+  </si>
+  <si>
     <t>198601-199106</t>
   </si>
   <si>
-    <t>198509-198912</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>198008-198408</t>
-  </si>
-  <si>
     <t>380 SE, SEL (126.032)</t>
   </si>
   <si>
@@ -140,22 +143,25 @@
     <t>198009-198110</t>
   </si>
   <si>
+    <t>420 SE, SEL</t>
+  </si>
+  <si>
+    <t>198510-198712</t>
+  </si>
+  <si>
+    <t>198510-199106</t>
+  </si>
+  <si>
+    <t>420 SE, SEL (126.034)</t>
+  </si>
+  <si>
     <t>420 SE, SEL (126.034, 126.035)</t>
   </si>
   <si>
-    <t>198510-199106</t>
-  </si>
-  <si>
-    <t>420 SE, SEL (126.034)</t>
-  </si>
-  <si>
-    <t>198510-198712</t>
-  </si>
-  <si>
-    <t>198612</t>
-  </si>
-  <si>
-    <t>420 SE, SEL</t>
+    <t>500 SE, SEL</t>
+  </si>
+  <si>
+    <t>198709-199106</t>
   </si>
   <si>
     <t>500 SE, SEL (126.036)</t>
@@ -164,33 +170,24 @@
     <t>197912-198508</t>
   </si>
   <si>
-    <t>500 SE, SEL</t>
-  </si>
-  <si>
-    <t>198709-199106</t>
-  </si>
-  <si>
     <t>500 SE, SEL Cat</t>
   </si>
   <si>
     <t>198906-199106</t>
   </si>
   <si>
+    <t>560 SE, SEL</t>
+  </si>
+  <si>
+    <t>198708-199106</t>
+  </si>
+  <si>
+    <t>560 SE, SEL (126.038)</t>
+  </si>
+  <si>
     <t>560 SE, SEL (126.038, 126.039)</t>
   </si>
   <si>
-    <t>560 SE, SEL (126.038)</t>
-  </si>
-  <si>
-    <t>560 SE, SEL</t>
-  </si>
-  <si>
-    <t>198708-199106</t>
-  </si>
-  <si>
-    <t>198708</t>
-  </si>
-  <si>
     <t>{"array": [{"articleLinkId": 991624944, "linkingTargetId": 116790}, {"articleLinkId": 2680626, "linkingTargetId": 831}, {"articleLinkId": 2680639, "linkingTargetId": 832}, {"articleLinkId": 2680652, "linkingTargetId": 833}, {"articleLinkId": 2680665, "linkingTargetId": 834}, {"articleLinkId": 267460794, "linkingTargetId": 125937}, {"articleLinkId": 2680678, "linkingTargetId": 838}, {"articleLinkId": 2680691, "linkingTargetId": 840}, {"articleLinkId": 2680821, "linkingTargetId": 57285}, {"articleLinkId": 2680704, "linkingTargetId": 841}, {"articleLinkId": 2680705, "linkingTargetId": 842}, {"articleLinkId": 2680807, "linkingTargetId": 852}, {"articleLinkId": 2680808, "linkingTargetId": 4832}, {"articleLinkId": 2680706, "linkingTargetId": 844}, {"articleLinkId": 2680732, "linkingTargetId": 845}, {"articleLinkId": 2680745, "linkingTargetId": 846}, {"articleLinkId": 2680770, "linkingTargetId": 847}]}</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>198509-198612</t>
   </si>
   <si>
-    <t>198511</t>
-  </si>
-  <si>
     <t>S-CLASS Coupe (C126)</t>
   </si>
   <si>
@@ -230,9 +224,6 @@
     <t>198008-198508</t>
   </si>
   <si>
-    <t>198110</t>
-  </si>
-  <si>
     <t>500 SEC Cat</t>
   </si>
   <si>
@@ -240,39 +231,6 @@
   </si>
   <si>
     <t>198510-198912</t>
-  </si>
-  <si>
-    <t>{"array": [{"articleLinkId": 936763202, "linkingTargetId": 752}, {"articleLinkId": 936763219, "linkingTargetId": 58478}, {"articleLinkId": 936763220, "linkingTargetId": 122596}]}</t>
-  </si>
-  <si>
-    <t>936763199;74;1</t>
-  </si>
-  <si>
-    <t>SL (R107)</t>
-  </si>
-  <si>
-    <t>300 SL (107.041)</t>
-  </si>
-  <si>
-    <t>198509-198908</t>
-  </si>
-  <si>
-    <t>Convertible</t>
-  </si>
-  <si>
-    <t>Front</t>
-  </si>
-  <si>
-    <t>560 SL (107.048)</t>
-  </si>
-  <si>
-    <t>198908</t>
-  </si>
-  <si>
-    <t>560 SL</t>
-  </si>
-  <si>
-    <t>198601-198912</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1334,44 +1292,44 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2">
         <v>118</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>160</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2599</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1384,44 +1342,44 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="J3">
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
         <v>122</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>166</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2599</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" t="s">
-        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1434,44 +1392,44 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4">
         <v>115</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>156</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>2746</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
       </c>
       <c r="O4" t="s">
         <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1484,44 +1442,44 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>27</v>
       </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
         <v>136</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>185</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2746</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>23</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1534,44 +1492,44 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
       <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>29</v>
       </c>
-      <c r="J6">
-        <v>132</v>
-      </c>
-      <c r="K6">
-        <v>180</v>
+      <c r="K6" t="s">
+        <v>30</v>
       </c>
       <c r="L6">
-        <v>2960</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>23</v>
+        <v>160</v>
+      </c>
+      <c r="M6">
+        <v>218</v>
+      </c>
+      <c r="N6">
+        <v>3818</v>
       </c>
       <c r="O6" t="s">
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1584,44 +1542,44 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
       <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7">
         <v>138</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>188</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>2960</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1634,44 +1592,44 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8">
-        <v>160</v>
-      </c>
-      <c r="K8">
-        <v>218</v>
+      <c r="K8" t="s">
+        <v>33</v>
       </c>
       <c r="L8">
-        <v>3818</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
+        <v>132</v>
+      </c>
+      <c r="M8">
+        <v>180</v>
+      </c>
+      <c r="N8">
+        <v>2960</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1684,44 +1642,44 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
       <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>34</v>
       </c>
-      <c r="J9">
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9">
         <v>150</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>204</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>3839</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1734,44 +1692,44 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
       <c r="I10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>36</v>
       </c>
-      <c r="J10">
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10">
         <v>160</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>218</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>3818</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
       </c>
       <c r="O10" t="s">
         <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1784,44 +1742,44 @@
       <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
       <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>38</v>
       </c>
-      <c r="J11">
-        <v>150</v>
-      </c>
-      <c r="K11">
-        <v>204</v>
+      <c r="K11" t="s">
+        <v>39</v>
       </c>
       <c r="L11">
+        <v>170</v>
+      </c>
+      <c r="M11">
+        <v>231</v>
+      </c>
+      <c r="N11">
         <v>4196</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1834,44 +1792,44 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12">
+        <v>74</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
       <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="J12">
-        <v>160</v>
-      </c>
-      <c r="K12">
-        <v>218</v>
-      </c>
       <c r="L12">
+        <v>150</v>
+      </c>
+      <c r="M12">
+        <v>204</v>
+      </c>
+      <c r="N12">
         <v>4196</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N12" t="s">
-        <v>41</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1884,44 +1842,44 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
       <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
         <v>165</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>224</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>4196</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
-        <v>23</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1934,44 +1892,44 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>42</v>
-      </c>
       <c r="I14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14">
-        <v>170</v>
-      </c>
-      <c r="K14">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>39</v>
       </c>
       <c r="L14">
+        <v>160</v>
+      </c>
+      <c r="M14">
+        <v>218</v>
+      </c>
+      <c r="N14">
         <v>4196</v>
-      </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" t="s">
-        <v>23</v>
       </c>
       <c r="O14" t="s">
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1984,44 +1942,44 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>42</v>
       </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15">
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15">
         <v>150</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>204</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>4196</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
       </c>
       <c r="O15" t="s">
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2034,44 +1992,44 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>43</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16">
-        <v>164</v>
-      </c>
-      <c r="K16">
-        <v>223</v>
+      <c r="K16" t="s">
+        <v>44</v>
       </c>
       <c r="L16">
+        <v>185</v>
+      </c>
+      <c r="M16">
+        <v>252</v>
+      </c>
+      <c r="N16">
         <v>4973</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
       </c>
       <c r="O16" t="s">
         <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2084,44 +2042,44 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>44</v>
       </c>
-      <c r="J17">
-        <v>170</v>
-      </c>
-      <c r="K17">
-        <v>231</v>
-      </c>
       <c r="L17">
+        <v>195</v>
+      </c>
+      <c r="M17">
+        <v>265</v>
+      </c>
+      <c r="N17">
         <v>4973</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>23</v>
       </c>
       <c r="O17" t="s">
         <v>23</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2134,44 +2092,44 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
       <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18">
-        <v>177</v>
-      </c>
-      <c r="K18">
-        <v>241</v>
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>46</v>
       </c>
       <c r="L18">
+        <v>170</v>
+      </c>
+      <c r="M18">
+        <v>231</v>
+      </c>
+      <c r="N18">
         <v>4973</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2184,44 +2142,44 @@
       <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19">
+      <c r="D19">
+        <v>74</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="H19" t="s">
-        <v>43</v>
-      </c>
       <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19">
-        <v>180</v>
-      </c>
-      <c r="K19">
-        <v>245</v>
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
       </c>
       <c r="L19">
+        <v>177</v>
+      </c>
+      <c r="M19">
+        <v>241</v>
+      </c>
+      <c r="N19">
         <v>4973</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
       </c>
       <c r="O19" t="s">
         <v>23</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2234,44 +2192,44 @@
       <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20">
+      <c r="D20">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>45</v>
       </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20">
-        <v>185</v>
-      </c>
-      <c r="K20">
-        <v>252</v>
+      <c r="K20" t="s">
+        <v>22</v>
       </c>
       <c r="L20">
+        <v>164</v>
+      </c>
+      <c r="M20">
+        <v>223</v>
+      </c>
+      <c r="N20">
         <v>4973</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" t="s">
-        <v>23</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2284,44 +2242,44 @@
       <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21">
+      <c r="D21">
+        <v>74</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21">
-        <v>185</v>
-      </c>
-      <c r="K21">
-        <v>252</v>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
       </c>
       <c r="L21">
+        <v>180</v>
+      </c>
+      <c r="M21">
+        <v>245</v>
+      </c>
+      <c r="N21">
         <v>4973</v>
-      </c>
-      <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" t="s">
-        <v>23</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2334,44 +2292,44 @@
       <c r="C22" t="s">
         <v>16</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="D22">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>19</v>
       </c>
-      <c r="H22" t="s">
-        <v>45</v>
-      </c>
       <c r="I22" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22">
-        <v>195</v>
-      </c>
-      <c r="K22">
-        <v>265</v>
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
       </c>
       <c r="L22">
+        <v>185</v>
+      </c>
+      <c r="M22">
+        <v>252</v>
+      </c>
+      <c r="N22">
         <v>4973</v>
-      </c>
-      <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" t="s">
-        <v>23</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2384,44 +2342,44 @@
       <c r="C23" t="s">
         <v>16</v>
       </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="D23">
+        <v>74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>49</v>
       </c>
-      <c r="I23" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23">
-        <v>178</v>
-      </c>
-      <c r="K23">
-        <v>242</v>
+      <c r="K23" t="s">
+        <v>40</v>
       </c>
       <c r="L23">
+        <v>220</v>
+      </c>
+      <c r="M23">
+        <v>300</v>
+      </c>
+      <c r="N23">
         <v>5547</v>
-      </c>
-      <c r="M23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" t="s">
-        <v>23</v>
       </c>
       <c r="O23" t="s">
         <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2434,44 +2392,44 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="D24">
+        <v>74</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>19</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" t="s">
         <v>50</v>
       </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24">
-        <v>200</v>
-      </c>
-      <c r="K24">
-        <v>272</v>
-      </c>
       <c r="L24">
+        <v>205</v>
+      </c>
+      <c r="M24">
+        <v>279</v>
+      </c>
+      <c r="N24">
         <v>5547</v>
-      </c>
-      <c r="M24" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" t="s">
-        <v>23</v>
       </c>
       <c r="O24" t="s">
         <v>23</v>
       </c>
       <c r="P24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2484,44 +2442,44 @@
       <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D25">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
         <v>18</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>51</v>
       </c>
-      <c r="I25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25">
-        <v>205</v>
-      </c>
-      <c r="K25">
-        <v>279</v>
+      <c r="K25" t="s">
+        <v>39</v>
       </c>
       <c r="L25">
+        <v>200</v>
+      </c>
+      <c r="M25">
+        <v>272</v>
+      </c>
+      <c r="N25">
         <v>5547</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" t="s">
-        <v>23</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2534,44 +2492,44 @@
       <c r="C26" t="s">
         <v>16</v>
       </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="D26">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>19</v>
       </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
       <c r="I26" t="s">
-        <v>38</v>
-      </c>
-      <c r="J26">
-        <v>220</v>
-      </c>
-      <c r="K26">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
       </c>
       <c r="L26">
+        <v>178</v>
+      </c>
+      <c r="M26">
+        <v>242</v>
+      </c>
+      <c r="N26">
         <v>5547</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" t="s">
-        <v>53</v>
       </c>
       <c r="O26" t="s">
         <v>23</v>
       </c>
       <c r="P26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2579,49 +2537,49 @@
         <v>2680287</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>55</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>56</v>
       </c>
-      <c r="I27" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27">
+      <c r="L27">
         <v>110</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>150</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>2996</v>
       </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>23</v>
       </c>
-      <c r="O27" t="s">
-        <v>58</v>
-      </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2629,49 +2587,49 @@
         <v>2680287</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
         <v>59</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28">
+        <v>150</v>
+      </c>
+      <c r="M28">
+        <v>204</v>
+      </c>
+      <c r="N28">
+        <v>3839</v>
+      </c>
+      <c r="O28" t="s">
         <v>60</v>
       </c>
-      <c r="I28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28">
-        <v>150</v>
-      </c>
-      <c r="K28">
-        <v>204</v>
-      </c>
-      <c r="L28">
-        <v>3839</v>
-      </c>
-      <c r="M28" t="s">
-        <v>62</v>
-      </c>
-      <c r="N28" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
       <c r="P28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2679,49 +2637,49 @@
         <v>2680287</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" t="s">
-        <v>63</v>
-      </c>
       <c r="I29" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29">
-        <v>150</v>
-      </c>
-      <c r="K29">
-        <v>204</v>
+        <v>57</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" t="s">
+        <v>39</v>
       </c>
       <c r="L29">
+        <v>160</v>
+      </c>
+      <c r="M29">
+        <v>218</v>
+      </c>
+      <c r="N29">
         <v>4196</v>
       </c>
-      <c r="M29" t="s">
-        <v>62</v>
-      </c>
-      <c r="N29" t="s">
-        <v>23</v>
-      </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2729,49 +2687,49 @@
         <v>2680287</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" t="s">
-        <v>63</v>
-      </c>
       <c r="I30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
         <v>40</v>
       </c>
-      <c r="J30">
-        <v>160</v>
-      </c>
-      <c r="K30">
-        <v>218</v>
-      </c>
       <c r="L30">
+        <v>150</v>
+      </c>
+      <c r="M30">
+        <v>204</v>
+      </c>
+      <c r="N30">
         <v>4196</v>
       </c>
-      <c r="M30" t="s">
-        <v>62</v>
-      </c>
-      <c r="N30" t="s">
-        <v>23</v>
-      </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2779,49 +2737,49 @@
         <v>2680287</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
         <v>54</v>
       </c>
-      <c r="D31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" t="s">
-        <v>63</v>
-      </c>
       <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31">
         <v>165</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>224</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>4196</v>
       </c>
-      <c r="M31" t="s">
-        <v>62</v>
-      </c>
-      <c r="N31" t="s">
-        <v>23</v>
-      </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2829,49 +2787,49 @@
         <v>2680287</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
         <v>54</v>
       </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" t="s">
-        <v>63</v>
-      </c>
       <c r="I32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32">
+        <v>57</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+      <c r="K32" t="s">
+        <v>62</v>
+      </c>
+      <c r="L32">
         <v>170</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>231</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>4196</v>
       </c>
-      <c r="M32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N32" t="s">
-        <v>23</v>
-      </c>
       <c r="O32" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2879,49 +2837,49 @@
         <v>2680287</v>
       </c>
       <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>74</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
         <v>2</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" t="s">
-        <v>65</v>
-      </c>
       <c r="I33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33">
-        <v>164</v>
-      </c>
-      <c r="K33">
-        <v>223</v>
+        <v>57</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" t="s">
+        <v>64</v>
       </c>
       <c r="L33">
+        <v>177</v>
+      </c>
+      <c r="M33">
+        <v>241</v>
+      </c>
+      <c r="N33">
         <v>4973</v>
       </c>
-      <c r="M33" t="s">
-        <v>62</v>
-      </c>
-      <c r="N33" t="s">
-        <v>23</v>
-      </c>
       <c r="O33" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2929,49 +2887,49 @@
         <v>2680287</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>74</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>59</v>
-      </c>
-      <c r="H34" t="s">
-        <v>65</v>
-      </c>
       <c r="I34" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34">
+        <v>57</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34">
         <v>170</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>231</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>4973</v>
       </c>
-      <c r="M34" t="s">
-        <v>62</v>
-      </c>
-      <c r="N34" t="s">
-        <v>23</v>
-      </c>
       <c r="O34" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2979,49 +2937,49 @@
         <v>2680287</v>
       </c>
       <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
         <v>54</v>
       </c>
-      <c r="D35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H35" t="s">
-        <v>65</v>
-      </c>
       <c r="I35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35">
-        <v>177</v>
-      </c>
-      <c r="K35">
-        <v>241</v>
+        <v>57</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" t="s">
+        <v>22</v>
       </c>
       <c r="L35">
+        <v>180</v>
+      </c>
+      <c r="M35">
+        <v>245</v>
+      </c>
+      <c r="N35">
         <v>4973</v>
       </c>
-      <c r="M35" t="s">
-        <v>62</v>
-      </c>
-      <c r="N35" t="s">
-        <v>23</v>
-      </c>
       <c r="O35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3029,49 +2987,49 @@
         <v>2680287</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>74</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" t="s">
-        <v>65</v>
-      </c>
       <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36">
-        <v>180</v>
-      </c>
-      <c r="K36">
-        <v>245</v>
+        <v>57</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" t="s">
+        <v>22</v>
       </c>
       <c r="L36">
+        <v>195</v>
+      </c>
+      <c r="M36">
+        <v>265</v>
+      </c>
+      <c r="N36">
         <v>4973</v>
       </c>
-      <c r="M36" t="s">
-        <v>62</v>
-      </c>
-      <c r="N36" t="s">
-        <v>23</v>
-      </c>
       <c r="O36" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3079,49 +3037,49 @@
         <v>2680287</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
-      <c r="C37" t="s">
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
         <v>54</v>
       </c>
-      <c r="D37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" t="s">
-        <v>65</v>
-      </c>
       <c r="I37" t="s">
-        <v>52</v>
-      </c>
-      <c r="J37">
-        <v>185</v>
-      </c>
-      <c r="K37">
-        <v>252</v>
+        <v>57</v>
+      </c>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" t="s">
+        <v>40</v>
       </c>
       <c r="L37">
+        <v>164</v>
+      </c>
+      <c r="M37">
+        <v>223</v>
+      </c>
+      <c r="N37">
         <v>4973</v>
       </c>
-      <c r="M37" t="s">
-        <v>62</v>
-      </c>
-      <c r="N37" t="s">
-        <v>23</v>
-      </c>
       <c r="O37" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3129,49 +3087,49 @@
         <v>2680287</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" t="s">
-        <v>68</v>
-      </c>
       <c r="I38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38">
+        <v>57</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38">
         <v>185</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>252</v>
       </c>
-      <c r="L38">
+      <c r="N38">
         <v>4973</v>
       </c>
-      <c r="M38" t="s">
-        <v>62</v>
-      </c>
-      <c r="N38" t="s">
-        <v>23</v>
-      </c>
       <c r="O38" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3179,49 +3137,49 @@
         <v>2680287</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" t="s">
         <v>54</v>
       </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" t="s">
         <v>65</v>
       </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39">
-        <v>195</v>
-      </c>
-      <c r="K39">
-        <v>265</v>
+      <c r="K39" t="s">
+        <v>48</v>
       </c>
       <c r="L39">
+        <v>185</v>
+      </c>
+      <c r="M39">
+        <v>252</v>
+      </c>
+      <c r="N39">
         <v>4973</v>
       </c>
-      <c r="M39" t="s">
-        <v>62</v>
-      </c>
-      <c r="N39" t="s">
-        <v>23</v>
-      </c>
       <c r="O39" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3229,49 +3187,49 @@
         <v>2680287</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
+      <c r="H40" t="s">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" t="s">
-        <v>69</v>
-      </c>
       <c r="I40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40">
-        <v>178</v>
-      </c>
-      <c r="K40">
-        <v>242</v>
+        <v>57</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
       </c>
       <c r="L40">
+        <v>200</v>
+      </c>
+      <c r="M40">
+        <v>272</v>
+      </c>
+      <c r="N40">
         <v>5547</v>
       </c>
-      <c r="M40" t="s">
-        <v>62</v>
-      </c>
-      <c r="N40" t="s">
-        <v>23</v>
-      </c>
       <c r="O40" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3279,49 +3237,49 @@
         <v>2680287</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>74</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
         <v>54</v>
       </c>
-      <c r="D41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41">
-        <v>15</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" t="s">
-        <v>69</v>
-      </c>
       <c r="I41" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41">
-        <v>200</v>
-      </c>
-      <c r="K41">
-        <v>272</v>
+        <v>57</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>67</v>
       </c>
       <c r="L41">
+        <v>220</v>
+      </c>
+      <c r="M41">
+        <v>300</v>
+      </c>
+      <c r="N41">
         <v>5547</v>
       </c>
-      <c r="M41" t="s">
-        <v>62</v>
-      </c>
-      <c r="N41" t="s">
-        <v>23</v>
-      </c>
       <c r="O41" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3329,49 +3287,49 @@
         <v>2680287</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
         <v>54</v>
       </c>
-      <c r="D42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" t="s">
-        <v>69</v>
-      </c>
       <c r="I42" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42">
-        <v>205</v>
-      </c>
-      <c r="K42">
-        <v>279</v>
+        <v>57</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K42" t="s">
+        <v>40</v>
       </c>
       <c r="L42">
+        <v>178</v>
+      </c>
+      <c r="M42">
+        <v>242</v>
+      </c>
+      <c r="N42">
         <v>5547</v>
       </c>
-      <c r="M42" t="s">
-        <v>62</v>
-      </c>
-      <c r="N42" t="s">
-        <v>23</v>
-      </c>
       <c r="O42" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3379,199 +3337,49 @@
         <v>2680287</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" t="s">
         <v>54</v>
       </c>
-      <c r="D43" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>59</v>
-      </c>
-      <c r="H43" t="s">
-        <v>69</v>
-      </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43">
-        <v>220</v>
-      </c>
-      <c r="K43">
-        <v>300</v>
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" t="s">
+        <v>40</v>
       </c>
       <c r="L43">
+        <v>205</v>
+      </c>
+      <c r="M43">
+        <v>279</v>
+      </c>
+      <c r="N43">
         <v>5547</v>
       </c>
-      <c r="M43" t="s">
-        <v>62</v>
-      </c>
-      <c r="N43" t="s">
-        <v>53</v>
-      </c>
       <c r="O43" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44">
-        <v>936763199</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44">
-        <v>132</v>
-      </c>
-      <c r="K44">
-        <v>180</v>
-      </c>
-      <c r="L44">
-        <v>2960</v>
-      </c>
-      <c r="M44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N44" t="s">
-        <v>23</v>
-      </c>
-      <c r="O44" t="s">
-        <v>23</v>
-      </c>
-      <c r="P44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45">
-        <v>936763199</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D45" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s">
-        <v>30</v>
-      </c>
-      <c r="J45">
-        <v>169</v>
-      </c>
-      <c r="K45">
-        <v>230</v>
-      </c>
-      <c r="L45">
-        <v>5547</v>
-      </c>
-      <c r="M45" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" t="s">
-        <v>79</v>
-      </c>
-      <c r="O45" t="s">
-        <v>23</v>
-      </c>
-      <c r="P45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46">
-        <v>936763199</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" t="s">
-        <v>81</v>
-      </c>
-      <c r="J46">
-        <v>178</v>
-      </c>
-      <c r="K46">
-        <v>242</v>
-      </c>
-      <c r="L46">
-        <v>5547</v>
-      </c>
-      <c r="M46" t="s">
-        <v>76</v>
-      </c>
-      <c r="N46" t="s">
-        <v>79</v>
-      </c>
-      <c r="O46" t="s">
-        <v>23</v>
-      </c>
-      <c r="P46" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
